--- a/ggirl/Gossip girl S_list_20200726.xlsx
+++ b/ggirl/Gossip girl S_list_20200726.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sys4u-my.sharepoint.com/personal/inog74_plateer_com/Documents/git/inogift/inogift.github.io/ggirl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="11_AD4D066CA252ABDACC1048DF89A479F349B8DF51" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E07F975-004A-41D7-95D9-8C2DAD83887C}"/>
+  <xr:revisionPtr revIDLastSave="541" documentId="11_AD4D066CA252ABDACC1048DF89A479F349B8DF51" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B7291B1-25AF-48E2-BD49-6DAF0CD03EC5}"/>
   <bookViews>
-    <workbookView xWindow="36435" yWindow="0" windowWidth="16095" windowHeight="15735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35715" yWindow="3465" windowWidth="23250" windowHeight="15735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="522">
   <si>
     <t>GOSSIP GIRL (2007–2012) - EPISODES WITH SCRIPTS</t>
   </si>
@@ -3513,11 +3513,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6x10 - New York, I Love You XOXO 6x10 - New York, I Love You XOXO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://transcripts.foreverdreaming.org/viewtopic.php?f=160&amp;t=9742</t>
+  </si>
+  <si>
+    <t>https://inogift.github.io/ggirl/GG_S6/6x02-High%20Infidelity.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inogift.github.io/ggirl/GG_S6/6x03-Dirty%20Rotten%20Scandals.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inogift.github.io/ggirl/GG_S6/6x10-New%20York,%20I%20Love%20You%20XOXO.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inogift.github.io/ggirl/GG_S6/6x04-Portrait%20of%20a%20Lady%20Alexander.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inogift.github.io/ggirl/GG_S6/6x01-Gone%20Maybe%20Gone.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inogift.github.io/ggirl/GG_S1/episode-13-A_Thin_Line_Between_Chuck_and_Nate.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://inogift.github.io/ggirl/GG_S1/episode-14-The_Blair_Bitch_Project.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. New York, I Love You XOXO 6x10 - New York, I Love You XOXO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>In a fashionable farewell to remember, our favorite Upper East Siders join forces for one last soiree; The identity of Gossip Girl is finally revealed.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3689,12 +3721,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3703,6 +3729,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3988,10 +4020,10 @@
   <dimension ref="B2:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D108" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="G165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="I109" sqref="I109"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9:H140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3999,8 +4031,8 @@
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="4.5" style="5" customWidth="1"/>
     <col min="3" max="3" width="39.75" customWidth="1"/>
-    <col min="4" max="4" width="8.375" customWidth="1"/>
-    <col min="5" max="5" width="63.625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="80.125" customWidth="1"/>
     <col min="6" max="6" width="4.375" customWidth="1"/>
     <col min="7" max="7" width="55.125" style="5" customWidth="1"/>
     <col min="8" max="8" width="67.5" style="6" customWidth="1"/>
@@ -4023,26 +4055,26 @@
       <c r="B4" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="2:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -4050,7 +4082,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="9" spans="2:11" s="9" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>266</v>
       </c>
@@ -4430,7 +4462,7 @@
         <v>510</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>483</v>
@@ -4459,7 +4491,7 @@
         <v>510</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>483</v>
@@ -7435,7 +7467,7 @@
         <v>510</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>483</v>
@@ -7447,7 +7479,7 @@
         <v>360</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J131" s="6" t="s">
         <v>492</v>
@@ -7464,7 +7496,7 @@
         <v>510</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>483</v>
@@ -7493,7 +7525,7 @@
         <v>510</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="F133" s="9" t="s">
         <v>483</v>
@@ -7522,7 +7554,7 @@
         <v>510</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="F134" s="9" t="s">
         <v>483</v>
@@ -7685,23 +7717,30 @@
         <v>492</v>
       </c>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B140" s="22"/>
-      <c r="C140" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="E140" s="14"/>
-      <c r="G140" s="21" t="s">
+    <row r="140" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="B140" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="G140" s="19" t="s">
         <v>511</v>
       </c>
+      <c r="H140" s="6" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B141" s="22"/>
-      <c r="C141" s="23"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="21"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B142" s="22"/>
-      <c r="C142" s="23"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="21"/>
       <c r="I142" s="5" t="s">
         <v>507</v>
       </c>
@@ -7710,20 +7749,20 @@
       </c>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B143" s="22"/>
-      <c r="C143" s="24"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="22"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B144" s="22"/>
-      <c r="C144" s="24"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="22"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B145" s="22"/>
-      <c r="C145" s="24"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="22"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B146" s="22"/>
-      <c r="C146" s="24"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7867,23 +7906,26 @@
     <hyperlink ref="E19" r:id="rId133" xr:uid="{B795D830-29AD-4E5F-905E-CC70F835D505}"/>
     <hyperlink ref="E20" r:id="rId134" xr:uid="{105FCC39-335C-4AD4-8912-84C7FCA5CA79}"/>
     <hyperlink ref="E21" r:id="rId135" xr:uid="{FDF8748D-338C-423B-9DD6-4A95D1CF0392}"/>
-    <hyperlink ref="E22" r:id="rId136" xr:uid="{E6D4A5FD-AF4D-4F62-AF6B-E920D7CFA3C7}"/>
-    <hyperlink ref="E23:E27" r:id="rId137" display="https://inogift.github.io/ggirl/GG_S1/" xr:uid="{5F35BF64-9AB6-4AF5-B495-34A4598EE015}"/>
-    <hyperlink ref="E30" r:id="rId138" xr:uid="{C31A90B4-86EC-4529-A522-2ED47734BE7C}"/>
-    <hyperlink ref="E31:E54" r:id="rId139" display="https://inogift.github.io/ggirl/GG_S2/" xr:uid="{AB8160B7-EEF4-48A8-B6D8-FAB807C7B2DD}"/>
-    <hyperlink ref="E57" r:id="rId140" xr:uid="{9997B42A-2B4F-43F6-936B-ADB1A694316D}"/>
-    <hyperlink ref="E58:E78" r:id="rId141" display="https://inogift.github.io/ggirl/GG_S3/" xr:uid="{D6D96335-50E3-45B2-9276-08CA8EFABE12}"/>
-    <hyperlink ref="E81" r:id="rId142" xr:uid="{EA98956C-B1E8-4222-82A2-4F3ED2961786}"/>
-    <hyperlink ref="E82:E102" r:id="rId143" display="https://inogift.github.io/ggirl/GG_S4/" xr:uid="{065F274D-E9EF-4340-BB7C-F82768BB6EA7}"/>
-    <hyperlink ref="E105" r:id="rId144" xr:uid="{A23FAC0B-6A0D-41EC-861F-AB82042E48E7}"/>
-    <hyperlink ref="E106:E128" r:id="rId145" display="https://inogift.github.io/ggirl/GG_S5/" xr:uid="{AF9763EA-0F9F-43DC-851E-D847F71C44A7}"/>
-    <hyperlink ref="E131" r:id="rId146" xr:uid="{690BF7C2-1BC9-49B6-A8EA-18276524C49D}"/>
-    <hyperlink ref="E132:E139" r:id="rId147" display="https://inogift.github.io/ggirl/GG_S6/" xr:uid="{38539C50-B2E1-411F-8C20-8978D3AE1D63}"/>
-    <hyperlink ref="G140" r:id="rId148" xr:uid="{3282E09E-AEE1-4C04-9BCC-4559C1AEF455}"/>
-    <hyperlink ref="I131" r:id="rId149" xr:uid="{701E0725-A7AE-4F72-9728-327E87A023E5}"/>
+    <hyperlink ref="E30" r:id="rId136" xr:uid="{C31A90B4-86EC-4529-A522-2ED47734BE7C}"/>
+    <hyperlink ref="E31:E54" r:id="rId137" display="https://inogift.github.io/ggirl/GG_S2/" xr:uid="{AB8160B7-EEF4-48A8-B6D8-FAB807C7B2DD}"/>
+    <hyperlink ref="E57" r:id="rId138" xr:uid="{9997B42A-2B4F-43F6-936B-ADB1A694316D}"/>
+    <hyperlink ref="E58:E78" r:id="rId139" display="https://inogift.github.io/ggirl/GG_S3/" xr:uid="{D6D96335-50E3-45B2-9276-08CA8EFABE12}"/>
+    <hyperlink ref="E81" r:id="rId140" xr:uid="{EA98956C-B1E8-4222-82A2-4F3ED2961786}"/>
+    <hyperlink ref="E82:E102" r:id="rId141" display="https://inogift.github.io/ggirl/GG_S4/" xr:uid="{065F274D-E9EF-4340-BB7C-F82768BB6EA7}"/>
+    <hyperlink ref="E105" r:id="rId142" xr:uid="{A23FAC0B-6A0D-41EC-861F-AB82042E48E7}"/>
+    <hyperlink ref="E106:E128" r:id="rId143" display="https://inogift.github.io/ggirl/GG_S5/" xr:uid="{AF9763EA-0F9F-43DC-851E-D847F71C44A7}"/>
+    <hyperlink ref="G140" r:id="rId144" xr:uid="{3282E09E-AEE1-4C04-9BCC-4559C1AEF455}"/>
+    <hyperlink ref="I131" r:id="rId145" xr:uid="{701E0725-A7AE-4F72-9728-327E87A023E5}"/>
+    <hyperlink ref="E131" r:id="rId146" display="https://inogift.github.io/ggirl/GG_S6/6x01-Gone Maybe Gone.html" xr:uid="{0E145882-EA2C-4974-B398-DA17F1347BF6}"/>
+    <hyperlink ref="E132" r:id="rId147" xr:uid="{D6DC6C59-0F1B-4B20-9725-3E43114ECE5E}"/>
+    <hyperlink ref="E133" r:id="rId148" xr:uid="{E5330517-6957-440F-A2FA-190FD428B94B}"/>
+    <hyperlink ref="E134" r:id="rId149" display="https://inogift.github.io/ggirl/GG_S6/6x04-Portrait of a Lady Alexander.html" xr:uid="{85D46AEF-697C-487B-B5C6-6F59A51E55A1}"/>
+    <hyperlink ref="E140" r:id="rId150" xr:uid="{56324CE4-820E-4FC6-B916-01BC4502103B}"/>
+    <hyperlink ref="E22" r:id="rId151" xr:uid="{3878B8FD-9759-45FE-8B7D-F11D778A9B63}"/>
+    <hyperlink ref="E23" r:id="rId152" xr:uid="{E490E135-E825-4FE3-A2A2-2E9AF0F35385}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId150"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId153"/>
 </worksheet>
 </file>
 
@@ -8216,7 +8258,7 @@
       </c>
       <c r="E20" s="4" t="str">
         <f>Sheet1!E22</f>
-        <v>https://inogift.github.io/ggirl/GG_S1/</v>
+        <v>https://inogift.github.io/ggirl/GG_S1/episode-13-A_Thin_Line_Between_Chuck_and_Nate.html</v>
       </c>
       <c r="F20" t="s">
         <v>483</v>
@@ -8241,7 +8283,7 @@
       </c>
       <c r="E21" s="4" t="str">
         <f>Sheet1!E23</f>
-        <v>https://inogift.github.io/ggirl/GG_S1/</v>
+        <v>https://inogift.github.io/ggirl/GG_S1/episode-14-The_Blair_Bitch_Project.html</v>
       </c>
       <c r="F21" t="s">
         <v>483</v>
@@ -10876,7 +10918,7 @@
       </c>
       <c r="E129" s="4" t="str">
         <f>Sheet1!E131</f>
-        <v>https://inogift.github.io/ggirl/GG_S6/</v>
+        <v>https://inogift.github.io/ggirl/GG_S6/6x01-Gone%20Maybe%20Gone.html</v>
       </c>
       <c r="F129" t="s">
         <v>483</v>
@@ -10895,7 +10937,7 @@
       </c>
       <c r="E130" s="4" t="str">
         <f>Sheet1!E132</f>
-        <v>https://inogift.github.io/ggirl/GG_S6/</v>
+        <v>https://inogift.github.io/ggirl/GG_S6/6x02-High%20Infidelity.html</v>
       </c>
       <c r="F130" t="s">
         <v>483</v>
@@ -10914,7 +10956,7 @@
       </c>
       <c r="E131" s="4" t="str">
         <f>Sheet1!E133</f>
-        <v>https://inogift.github.io/ggirl/GG_S6/</v>
+        <v>https://inogift.github.io/ggirl/GG_S6/6x03-Dirty%20Rotten%20Scandals.html</v>
       </c>
       <c r="F131" t="s">
         <v>483</v>
@@ -10933,7 +10975,7 @@
       </c>
       <c r="E132" s="4" t="str">
         <f>Sheet1!E134</f>
-        <v>https://inogift.github.io/ggirl/GG_S6/</v>
+        <v>https://inogift.github.io/ggirl/GG_S6/6x04-Portrait%20of%20a%20Lady%20Alexander.html</v>
       </c>
       <c r="F132" t="s">
         <v>483</v>

--- a/ggirl/Gossip girl S_list_20200726.xlsx
+++ b/ggirl/Gossip girl S_list_20200726.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sys4u-my.sharepoint.com/personal/inog74_plateer_com/Documents/git/inogift/inogift.github.io/ggirl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="11_AD4D066CA252ABDACC1048DF89A479F349B8DF51" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B7291B1-25AF-48E2-BD49-6DAF0CD03EC5}"/>
+  <xr:revisionPtr revIDLastSave="551" documentId="11_AD4D066CA252ABDACC1048DF89A479F349B8DF51" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7A6836F7-517F-438D-B98F-88E188ADBD2D}"/>
   <bookViews>
-    <workbookView xWindow="35715" yWindow="3465" windowWidth="23250" windowHeight="15735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="300" windowWidth="26040" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="528">
   <si>
     <t>GOSSIP GIRL (2007–2012) - EPISODES WITH SCRIPTS</t>
   </si>
@@ -2849,10 +2849,6 @@
   </si>
   <si>
     <t>In the sixth season premiere, Serena has gone missing and Chuck and Blair make a promise to each other about their relationship.MICHELLE TRACHTENBERG, BARRY WATSON guest star.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serena hosts a big gala, Blair prepares to debut her new fashion line and Dan must decide if he is willing to sacrifice hisintegrity in order to get his work published.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3549,6 +3545,36 @@
   </si>
   <si>
     <t>In a fashionable farewell to remember, our favorite Upper East Siders join forces for one last soiree; The identity of Gossip Girl is finally revealed.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Words</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shattered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>provocative
+anonymity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loophole
+prenup</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unintentionally</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serena hosts a big gala, Blair prepares to debut her new fashion line and Dan must decide if he is willing to sacrifice his integrity in order to get his work published.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soiree 파티</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4017,13 +4043,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B2:K146"/>
+  <dimension ref="B2:L146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="G165" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9:H140"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4037,21 +4063,23 @@
     <col min="7" max="7" width="55.125" style="5" customWidth="1"/>
     <col min="8" max="8" width="67.5" style="6" customWidth="1"/>
     <col min="9" max="10" width="19.875" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="11" max="11" width="9" style="5"/>
+    <col min="12" max="12" width="14" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G2" s="5" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:11" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>267</v>
       </c>
@@ -4064,9 +4092,9 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -4074,7 +4102,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -4082,7 +4110,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="9" spans="2:11" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>266</v>
       </c>
@@ -4096,22 +4124,25 @@
       <c r="K9" s="12" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="L9" s="9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
         <v>265</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>241</v>
@@ -4120,27 +4151,27 @@
         <v>244</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="9" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" s="9" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
         <v>265</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>242</v>
@@ -4149,27 +4180,27 @@
         <v>245</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
         <v>265</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>243</v>
@@ -4178,27 +4209,27 @@
         <v>246</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
         <v>265</v>
       </c>
       <c r="C13" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>490</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>268</v>
@@ -4207,13 +4238,13 @@
         <v>247</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>265</v>
       </c>
@@ -4221,13 +4252,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>126</v>
@@ -4236,13 +4267,13 @@
         <v>248</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
         <v>265</v>
       </c>
@@ -4250,13 +4281,13 @@
         <v>3</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>127</v>
@@ -4265,13 +4296,13 @@
         <v>249</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>265</v>
       </c>
@@ -4279,13 +4310,13 @@
         <v>4</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>128</v>
@@ -4294,10 +4325,10 @@
         <v>250</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4308,13 +4339,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>129</v>
@@ -4323,10 +4354,10 @@
         <v>251</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4337,13 +4368,13 @@
         <v>6</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>130</v>
@@ -4352,10 +4383,10 @@
         <v>252</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4366,13 +4397,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>131</v>
@@ -4381,10 +4412,10 @@
         <v>253</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="2:11" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.3">
@@ -4395,13 +4426,13 @@
         <v>8</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>132</v>
@@ -4410,10 +4441,10 @@
         <v>254</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>281</v>
@@ -4427,13 +4458,13 @@
         <v>9</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>133</v>
@@ -4442,10 +4473,10 @@
         <v>255</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>282</v>
@@ -4459,13 +4490,13 @@
         <v>10</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>134</v>
@@ -4474,10 +4505,10 @@
         <v>256</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="2:11" s="9" customFormat="1" ht="396" x14ac:dyDescent="0.3">
@@ -4488,13 +4519,13 @@
         <v>11</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>135</v>
@@ -4503,10 +4534,10 @@
         <v>257</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="2:11" s="9" customFormat="1" ht="247.5" x14ac:dyDescent="0.3">
@@ -4517,13 +4548,13 @@
         <v>12</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>136</v>
@@ -4532,10 +4563,10 @@
         <v>258</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4546,13 +4577,13 @@
         <v>13</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>137</v>
@@ -4561,10 +4592,10 @@
         <v>259</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4575,13 +4606,13 @@
         <v>14</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>138</v>
@@ -4590,10 +4621,10 @@
         <v>260</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4604,13 +4635,13 @@
         <v>15</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>139</v>
@@ -4619,20 +4650,20 @@
         <v>261</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E28" s="14"/>
       <c r="H28" s="11"/>
       <c r="I28" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="2:11" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
@@ -4645,10 +4676,10 @@
       <c r="E29" s="14"/>
       <c r="H29" s="11"/>
       <c r="I29" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="9" customFormat="1" ht="198" x14ac:dyDescent="0.3">
@@ -4659,13 +4690,13 @@
         <v>20</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G30" s="9" t="s">
         <v>140</v>
@@ -4674,10 +4705,10 @@
         <v>262</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4688,13 +4719,13 @@
         <v>21</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>141</v>
@@ -4703,10 +4734,10 @@
         <v>263</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4717,13 +4748,13 @@
         <v>22</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>142</v>
@@ -4732,10 +4763,10 @@
         <v>264</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="2:10" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
@@ -4746,13 +4777,13 @@
         <v>23</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>143</v>
@@ -4761,10 +4792,10 @@
         <v>269</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4775,13 +4806,13 @@
         <v>24</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>144</v>
@@ -4790,10 +4821,10 @@
         <v>270</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="2:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4804,13 +4835,13 @@
         <v>25</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G35" s="9" t="s">
         <v>145</v>
@@ -4819,10 +4850,10 @@
         <v>271</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4833,13 +4864,13 @@
         <v>26</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>146</v>
@@ -4848,10 +4879,10 @@
         <v>272</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4862,13 +4893,13 @@
         <v>27</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>147</v>
@@ -4877,10 +4908,10 @@
         <v>273</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4891,13 +4922,13 @@
         <v>28</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G38" s="9" t="s">
         <v>148</v>
@@ -4906,10 +4937,10 @@
         <v>274</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4920,13 +4951,13 @@
         <v>29</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G39" s="9" t="s">
         <v>149</v>
@@ -4935,10 +4966,10 @@
         <v>275</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -4949,13 +4980,13 @@
         <v>30</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>150</v>
@@ -4964,10 +4995,10 @@
         <v>276</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="2:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -4978,13 +5009,13 @@
         <v>31</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>151</v>
@@ -4993,10 +5024,10 @@
         <v>277</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5007,13 +5038,13 @@
         <v>32</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>152</v>
@@ -5022,10 +5053,10 @@
         <v>278</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J42" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5036,13 +5067,13 @@
         <v>33</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G43" s="9" t="s">
         <v>153</v>
@@ -5051,10 +5082,10 @@
         <v>279</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5065,13 +5096,13 @@
         <v>34</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>154</v>
@@ -5080,10 +5111,10 @@
         <v>283</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5094,13 +5125,13 @@
         <v>35</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>155</v>
@@ -5109,10 +5140,10 @@
         <v>284</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="46" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5123,13 +5154,13 @@
         <v>36</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>156</v>
@@ -5138,10 +5169,10 @@
         <v>285</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5152,13 +5183,13 @@
         <v>37</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G47" s="9" t="s">
         <v>157</v>
@@ -5167,10 +5198,10 @@
         <v>286</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5178,23 +5209,23 @@
         <v>19</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5205,13 +5236,13 @@
         <v>38</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>158</v>
@@ -5220,10 +5251,10 @@
         <v>287</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5234,13 +5265,13 @@
         <v>39</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E50" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>159</v>
@@ -5249,10 +5280,10 @@
         <v>288</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5263,13 +5294,13 @@
         <v>40</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>160</v>
@@ -5278,10 +5309,10 @@
         <v>289</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5292,13 +5323,13 @@
         <v>41</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>161</v>
@@ -5307,10 +5338,10 @@
         <v>290</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J52" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5321,13 +5352,13 @@
         <v>42</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G53" s="9" t="s">
         <v>162</v>
@@ -5336,10 +5367,10 @@
         <v>291</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J53" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5350,13 +5381,13 @@
         <v>43</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E54" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>163</v>
@@ -5365,20 +5396,20 @@
         <v>292</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E55" s="14"/>
       <c r="H55" s="11"/>
       <c r="I55" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="2:10" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
@@ -5391,10 +5422,10 @@
       <c r="E56" s="14"/>
       <c r="H56" s="11"/>
       <c r="I56" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J56" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5405,13 +5436,13 @@
         <v>46</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G57" s="9" t="s">
         <v>164</v>
@@ -5420,10 +5451,10 @@
         <v>293</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J57" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5434,13 +5465,13 @@
         <v>47</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>165</v>
@@ -5449,10 +5480,10 @@
         <v>294</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5463,13 +5494,13 @@
         <v>48</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>166</v>
@@ -5478,10 +5509,10 @@
         <v>295</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5492,13 +5523,13 @@
         <v>49</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>167</v>
@@ -5507,10 +5538,10 @@
         <v>296</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5521,13 +5552,13 @@
         <v>50</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>168</v>
@@ -5536,10 +5567,10 @@
         <v>297</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5550,13 +5581,13 @@
         <v>51</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>169</v>
@@ -5565,10 +5596,10 @@
         <v>298</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J62" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5579,13 +5610,13 @@
         <v>52</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>170</v>
@@ -5594,10 +5625,10 @@
         <v>299</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J63" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5608,13 +5639,13 @@
         <v>53</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>171</v>
@@ -5623,10 +5654,10 @@
         <v>300</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J64" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5637,13 +5668,13 @@
         <v>54</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>172</v>
@@ -5652,10 +5683,10 @@
         <v>301</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5666,13 +5697,13 @@
         <v>55</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>173</v>
@@ -5681,10 +5712,10 @@
         <v>302</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5695,13 +5726,13 @@
         <v>56</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>174</v>
@@ -5710,10 +5741,10 @@
         <v>303</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5724,13 +5755,13 @@
         <v>57</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>175</v>
@@ -5739,10 +5770,10 @@
         <v>304</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J68" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5753,13 +5784,13 @@
         <v>58</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>176</v>
@@ -5768,10 +5799,10 @@
         <v>305</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J69" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5782,13 +5813,13 @@
         <v>59</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>177</v>
@@ -5797,10 +5828,10 @@
         <v>306</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J70" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5811,13 +5842,13 @@
         <v>60</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>178</v>
@@ -5826,10 +5857,10 @@
         <v>307</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5840,13 +5871,13 @@
         <v>61</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G72" s="9" t="s">
         <v>179</v>
@@ -5855,10 +5886,10 @@
         <v>308</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5869,13 +5900,13 @@
         <v>62</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>180</v>
@@ -5884,10 +5915,10 @@
         <v>309</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J73" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5898,13 +5929,13 @@
         <v>63</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>181</v>
@@ -5913,10 +5944,10 @@
         <v>310</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5927,13 +5958,13 @@
         <v>64</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>182</v>
@@ -5942,10 +5973,10 @@
         <v>311</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J75" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5956,13 +5987,13 @@
         <v>65</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>183</v>
@@ -5971,10 +6002,10 @@
         <v>312</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="77" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -5985,13 +6016,13 @@
         <v>66</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G77" s="9" t="s">
         <v>184</v>
@@ -6000,10 +6031,10 @@
         <v>313</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J77" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6014,13 +6045,13 @@
         <v>67</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G78" s="9" t="s">
         <v>185</v>
@@ -6029,20 +6060,20 @@
         <v>314</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J78" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E79" s="14"/>
       <c r="H79" s="11"/>
       <c r="I79" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="80" spans="2:10" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
@@ -6055,10 +6086,10 @@
       <c r="E80" s="14"/>
       <c r="H80" s="11"/>
       <c r="I80" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="2:10" s="9" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
@@ -6069,13 +6100,13 @@
         <v>69</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>186</v>
@@ -6084,10 +6115,10 @@
         <v>315</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6098,13 +6129,13 @@
         <v>70</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>187</v>
@@ -6113,10 +6144,10 @@
         <v>316</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6127,13 +6158,13 @@
         <v>71</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>188</v>
@@ -6142,10 +6173,10 @@
         <v>317</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6156,13 +6187,13 @@
         <v>72</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G84" s="9" t="s">
         <v>189</v>
@@ -6171,10 +6202,10 @@
         <v>318</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6185,13 +6216,13 @@
         <v>73</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>190</v>
@@ -6200,10 +6231,10 @@
         <v>319</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="86" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6214,13 +6245,13 @@
         <v>74</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>191</v>
@@ -6229,10 +6260,10 @@
         <v>320</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6243,13 +6274,13 @@
         <v>75</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>192</v>
@@ -6258,10 +6289,10 @@
         <v>321</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6272,13 +6303,13 @@
         <v>76</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>193</v>
@@ -6287,10 +6318,10 @@
         <v>322</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6301,13 +6332,13 @@
         <v>77</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G89" s="9" t="s">
         <v>194</v>
@@ -6316,10 +6347,10 @@
         <v>323</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6330,13 +6361,13 @@
         <v>78</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G90" s="9" t="s">
         <v>195</v>
@@ -6345,10 +6376,10 @@
         <v>324</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="2:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -6359,13 +6390,13 @@
         <v>79</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G91" s="9" t="s">
         <v>196</v>
@@ -6374,10 +6405,10 @@
         <v>325</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6388,13 +6419,13 @@
         <v>80</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>197</v>
@@ -6403,10 +6434,10 @@
         <v>326</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6417,13 +6448,13 @@
         <v>81</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G93" s="9" t="s">
         <v>198</v>
@@ -6432,10 +6463,10 @@
         <v>327</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J93" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6446,13 +6477,13 @@
         <v>82</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G94" s="9" t="s">
         <v>199</v>
@@ -6461,10 +6492,10 @@
         <v>328</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6475,13 +6506,13 @@
         <v>83</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>200</v>
@@ -6490,10 +6521,10 @@
         <v>329</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
@@ -6504,13 +6535,13 @@
         <v>84</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G96" s="9" t="s">
         <v>201</v>
@@ -6519,13 +6550,13 @@
         <v>330</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J96" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B97" s="9" t="s">
         <v>265</v>
       </c>
@@ -6533,13 +6564,13 @@
         <v>85</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G97" s="9" t="s">
         <v>202</v>
@@ -6548,13 +6579,13 @@
         <v>331</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J97" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B98" s="9" t="s">
         <v>265</v>
       </c>
@@ -6562,13 +6593,13 @@
         <v>86</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>203</v>
@@ -6577,13 +6608,13 @@
         <v>332</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B99" s="9" t="s">
         <v>265</v>
       </c>
@@ -6591,13 +6622,13 @@
         <v>87</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G99" s="9" t="s">
         <v>204</v>
@@ -6606,13 +6637,13 @@
         <v>333</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B100" s="9" t="s">
         <v>265</v>
       </c>
@@ -6620,13 +6651,13 @@
         <v>88</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>205</v>
@@ -6635,13 +6666,13 @@
         <v>334</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B101" s="9" t="s">
         <v>265</v>
       </c>
@@ -6649,13 +6680,13 @@
         <v>89</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G101" s="9" t="s">
         <v>206</v>
@@ -6664,13 +6695,16 @@
         <v>335</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B102" s="9" t="s">
         <v>265</v>
       </c>
@@ -6678,13 +6712,13 @@
         <v>90</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G102" s="9" t="s">
         <v>207</v>
@@ -6693,29 +6727,29 @@
         <v>336</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B103" s="9" t="s">
         <v>265</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E103" s="14"/>
       <c r="H103" s="11"/>
       <c r="I103" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B104" s="9" t="s">
         <v>266</v>
       </c>
@@ -6725,13 +6759,13 @@
       <c r="E104" s="14"/>
       <c r="H104" s="11"/>
       <c r="I104" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B105" s="9" t="s">
         <v>265</v>
       </c>
@@ -6739,13 +6773,13 @@
         <v>92</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>208</v>
@@ -6754,13 +6788,13 @@
         <v>337</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B106" s="9" t="s">
         <v>265</v>
       </c>
@@ -6768,13 +6802,13 @@
         <v>93</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G106" s="9" t="s">
         <v>209</v>
@@ -6783,13 +6817,13 @@
         <v>338</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B107" s="9" t="s">
         <v>265</v>
       </c>
@@ -6797,13 +6831,13 @@
         <v>94</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>210</v>
@@ -6812,13 +6846,13 @@
         <v>339</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B108" s="9" t="s">
         <v>265</v>
       </c>
@@ -6826,13 +6860,13 @@
         <v>95</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G108" s="9" t="s">
         <v>211</v>
@@ -6841,13 +6875,13 @@
         <v>340</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B109" s="9" t="s">
         <v>265</v>
       </c>
@@ -6855,13 +6889,13 @@
         <v>96</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>212</v>
@@ -6870,13 +6904,13 @@
         <v>341</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J109" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="B110" s="9" t="s">
         <v>265</v>
       </c>
@@ -6884,13 +6918,13 @@
         <v>97</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>213</v>
@@ -6899,13 +6933,16 @@
         <v>342</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J110" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B111" s="9" t="s">
         <v>265</v>
       </c>
@@ -6913,13 +6950,13 @@
         <v>98</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>214</v>
@@ -6928,13 +6965,13 @@
         <v>343</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B112" s="9" t="s">
         <v>265</v>
       </c>
@@ -6942,13 +6979,13 @@
         <v>99</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>215</v>
@@ -6957,13 +6994,13 @@
         <v>344</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B113" s="9" t="s">
         <v>265</v>
       </c>
@@ -6971,13 +7008,13 @@
         <v>100</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>216</v>
@@ -6986,13 +7023,13 @@
         <v>344</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B114" s="9" t="s">
         <v>265</v>
       </c>
@@ -7000,13 +7037,13 @@
         <v>101</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E114" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G114" s="9" t="s">
         <v>217</v>
@@ -7015,13 +7052,13 @@
         <v>345</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B115" s="9" t="s">
         <v>265</v>
       </c>
@@ -7029,13 +7066,13 @@
         <v>102</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G115" s="9" t="s">
         <v>218</v>
@@ -7044,13 +7081,13 @@
         <v>346</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B116" s="9" t="s">
         <v>265</v>
       </c>
@@ -7058,13 +7095,13 @@
         <v>103</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E116" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G116" s="9" t="s">
         <v>219</v>
@@ -7073,13 +7110,13 @@
         <v>347</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B117" s="9" t="s">
         <v>265</v>
       </c>
@@ -7087,13 +7124,13 @@
         <v>104</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G117" s="9" t="s">
         <v>220</v>
@@ -7102,13 +7139,13 @@
         <v>348</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="118" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B118" s="9" t="s">
         <v>265</v>
       </c>
@@ -7116,13 +7153,13 @@
         <v>105</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>221</v>
@@ -7131,13 +7168,13 @@
         <v>349</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B119" s="9" t="s">
         <v>265</v>
       </c>
@@ -7145,13 +7182,13 @@
         <v>106</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G119" s="9" t="s">
         <v>222</v>
@@ -7160,13 +7197,13 @@
         <v>350</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B120" s="9" t="s">
         <v>265</v>
       </c>
@@ -7174,13 +7211,13 @@
         <v>107</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>223</v>
@@ -7189,13 +7226,13 @@
         <v>351</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="B121" s="9" t="s">
         <v>265</v>
       </c>
@@ -7203,13 +7240,13 @@
         <v>108</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G121" s="9" t="s">
         <v>224</v>
@@ -7218,13 +7255,16 @@
         <v>352</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="L121" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B122" s="9" t="s">
         <v>265</v>
       </c>
@@ -7232,13 +7272,13 @@
         <v>109</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>225</v>
@@ -7247,13 +7287,13 @@
         <v>353</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B123" s="9" t="s">
         <v>265</v>
       </c>
@@ -7261,13 +7301,13 @@
         <v>110</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>226</v>
@@ -7276,13 +7316,13 @@
         <v>354</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B124" s="9" t="s">
         <v>265</v>
       </c>
@@ -7290,13 +7330,13 @@
         <v>111</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G124" s="9" t="s">
         <v>227</v>
@@ -7305,13 +7345,13 @@
         <v>355</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B125" s="9" t="s">
         <v>265</v>
       </c>
@@ -7319,13 +7359,13 @@
         <v>112</v>
       </c>
       <c r="D125" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G125" s="9" t="s">
         <v>228</v>
@@ -7334,13 +7374,13 @@
         <v>356</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B126" s="9" t="s">
         <v>265</v>
       </c>
@@ -7348,13 +7388,13 @@
         <v>113</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G126" s="9" t="s">
         <v>229</v>
@@ -7363,13 +7403,13 @@
         <v>357</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B127" s="9" t="s">
         <v>265</v>
       </c>
@@ -7377,13 +7417,13 @@
         <v>114</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G127" s="9" t="s">
         <v>230</v>
@@ -7392,13 +7432,13 @@
         <v>358</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B128" s="9" t="s">
         <v>265</v>
       </c>
@@ -7406,13 +7446,13 @@
         <v>115</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G128" s="9" t="s">
         <v>231</v>
@@ -7421,26 +7461,29 @@
         <v>359</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+      <c r="L128" s="9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="129" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9" t="s">
         <v>265</v>
       </c>
       <c r="E129" s="14"/>
       <c r="H129" s="11"/>
       <c r="I129" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="B130" s="9" t="s">
         <v>266</v>
       </c>
@@ -7450,13 +7493,13 @@
       <c r="E130" s="14"/>
       <c r="H130" s="11"/>
       <c r="I130" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B131" s="9" t="s">
         <v>265</v>
       </c>
@@ -7464,13 +7507,13 @@
         <v>117</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G131" s="9" t="s">
         <v>232</v>
@@ -7479,13 +7522,13 @@
         <v>360</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B132" s="9" t="s">
         <v>265</v>
       </c>
@@ -7493,28 +7536,28 @@
         <v>118</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G132" s="9" t="s">
         <v>233</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>361</v>
+        <v>526</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B133" s="9" t="s">
         <v>265</v>
       </c>
@@ -7522,28 +7565,28 @@
         <v>119</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G133" s="9" t="s">
         <v>234</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B134" s="9" t="s">
         <v>265</v>
       </c>
@@ -7551,28 +7594,28 @@
         <v>120</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G134" s="9" t="s">
         <v>235</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B135" s="9" t="s">
         <v>265</v>
       </c>
@@ -7580,28 +7623,28 @@
         <v>121</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G135" s="9" t="s">
         <v>236</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B136" s="9" t="s">
         <v>265</v>
       </c>
@@ -7609,28 +7652,28 @@
         <v>122</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E136" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G136" s="9" t="s">
         <v>237</v>
       </c>
       <c r="H136" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B137" s="9" t="s">
         <v>265</v>
       </c>
@@ -7638,28 +7681,28 @@
         <v>123</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>238</v>
       </c>
       <c r="H137" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B138" s="9" t="s">
         <v>265</v>
       </c>
@@ -7667,28 +7710,28 @@
         <v>124</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G138" s="9" t="s">
         <v>239</v>
       </c>
       <c r="H138" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="B139" s="9" t="s">
         <v>265</v>
       </c>
@@ -7696,63 +7739,66 @@
         <v>125</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G139" s="9" t="s">
         <v>240</v>
       </c>
       <c r="H139" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" ht="33" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B140" s="9" t="s">
         <v>265</v>
       </c>
       <c r="C140" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="G140" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="H140" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="E140" s="14" t="s">
-        <v>515</v>
-      </c>
-      <c r="G140" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="H140" s="6" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="L140" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B141" s="20"/>
       <c r="C141" s="21"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B142" s="20"/>
       <c r="C142" s="21"/>
       <c r="I142" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B143" s="20"/>
       <c r="C143" s="22"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B144" s="20"/>
       <c r="C144" s="22"/>
     </row>
@@ -7993,22 +8039,22 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C7" t="str">
         <f>Sheet1!C9</f>
         <v>SEASON 1</v>
       </c>
       <c r="G7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H7" t="s">
         <v>370</v>
-      </c>
-      <c r="H7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
@@ -8020,14 +8066,14 @@
         <v>1. Pilot</v>
       </c>
       <c r="D8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>Sheet1!E10</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-1-Pilot.html</v>
       </c>
       <c r="F8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
@@ -8039,14 +8085,14 @@
         <v>2. The Wild Brunch</v>
       </c>
       <c r="D9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>Sheet1!E11</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-2-The_Wild_Brunch.html</v>
       </c>
       <c r="F9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -8058,14 +8104,14 @@
         <v>3. Poison Ivy</v>
       </c>
       <c r="D10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E10" s="4" t="str">
         <f>Sheet1!E12</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-3-Poison_Ivy.html</v>
       </c>
       <c r="F10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -8077,14 +8123,14 @@
         <v>4. Bad News Blair</v>
       </c>
       <c r="D11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E11" s="4" t="str">
         <f>Sheet1!E13</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-4-Bad_News_Blair.html</v>
       </c>
       <c r="F11" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
@@ -8096,14 +8142,14 @@
         <v>5. Dare Devil</v>
       </c>
       <c r="D12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E12" s="4" t="str">
         <f>Sheet1!E14</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-5-Dare_Devil.html</v>
       </c>
       <c r="F12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -8115,14 +8161,14 @@
         <v>6. The Handmaiden's Tale</v>
       </c>
       <c r="D13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E13" s="4" t="str">
         <f>Sheet1!E15</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-6-The_Handmaidens_Tale.html</v>
       </c>
       <c r="F13" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
@@ -8134,14 +8180,14 @@
         <v>7. Victor/Victrola</v>
       </c>
       <c r="D14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E14" s="4" t="str">
         <f>Sheet1!E16</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-7-VictorVictrola.html</v>
       </c>
       <c r="F14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -8153,14 +8199,14 @@
         <v>8. Seventeen Candles</v>
       </c>
       <c r="D15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E15" s="4" t="str">
         <f>Sheet1!E17</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-8-Seventeen_Candles.html</v>
       </c>
       <c r="F15" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
@@ -8172,14 +8218,14 @@
         <v>9. Blair Waldorf Must Pie!</v>
       </c>
       <c r="D16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E16" s="4" t="str">
         <f>Sheet1!E18</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-9-Blair_Waldorf_Must_Pie.html</v>
       </c>
       <c r="F16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
@@ -8191,14 +8237,14 @@
         <v>10. Hi, Society</v>
       </c>
       <c r="D17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E17" s="4" t="str">
         <f>Sheet1!E19</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-10-Hi_Society.html</v>
       </c>
       <c r="F17" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
@@ -8210,14 +8256,14 @@
         <v>11. Roman Holiday</v>
       </c>
       <c r="D18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E18" s="4" t="str">
         <f>Sheet1!E20</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-11-Roman_Holiday.html</v>
       </c>
       <c r="F18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
@@ -8229,20 +8275,20 @@
         <v>12. School Lies</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E19" s="4" t="str">
         <f>Sheet1!E21</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-12-School_Lies.html</v>
       </c>
       <c r="F19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
@@ -8254,20 +8300,20 @@
         <v>13. A Thin Line Between Chuck and Nate</v>
       </c>
       <c r="D20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E20" s="4" t="str">
         <f>Sheet1!E22</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-13-A_Thin_Line_Between_Chuck_and_Nate.html</v>
       </c>
       <c r="F20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H20" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
@@ -8279,20 +8325,20 @@
         <v>14. The Blair Bitch Project</v>
       </c>
       <c r="D21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E21" s="4" t="str">
         <f>Sheet1!E23</f>
         <v>https://inogift.github.io/ggirl/GG_S1/episode-14-The_Blair_Bitch_Project.html</v>
       </c>
       <c r="F21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
@@ -8304,20 +8350,20 @@
         <v>15. Desperately Seeking Serena</v>
       </c>
       <c r="D22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E22" s="4" t="str">
         <f>Sheet1!E24</f>
         <v>https://inogift.github.io/ggirl/GG_S1/</v>
       </c>
       <c r="F22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
@@ -8329,20 +8375,20 @@
         <v>16. All About My Brother</v>
       </c>
       <c r="D23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E23" s="4" t="str">
         <f>Sheet1!E25</f>
         <v>https://inogift.github.io/ggirl/GG_S1/</v>
       </c>
       <c r="F23" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
@@ -8354,23 +8400,23 @@
         <v>17. Woman on the Verge</v>
       </c>
       <c r="D24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E24" s="4" t="str">
         <f>Sheet1!E26</f>
         <v>https://inogift.github.io/ggirl/GG_S1/</v>
       </c>
       <c r="F24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N24" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
@@ -8382,51 +8428,51 @@
         <v>18. Much 'I Do' About Nothing</v>
       </c>
       <c r="D25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E25" s="4" t="str">
         <f>Sheet1!E27</f>
         <v>https://inogift.github.io/ggirl/GG_S1/</v>
       </c>
       <c r="F25" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E26" s="4">
         <f>Sheet1!E28</f>
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C27" t="str">
         <f>Sheet1!C29</f>
         <v>SEASON 2</v>
       </c>
       <c r="D27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E27" s="4">
         <f>Sheet1!E29</f>
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
@@ -8438,20 +8484,20 @@
         <v>1. Summer Kind of Wonderful</v>
       </c>
       <c r="D28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E28" s="4" t="str">
         <f>Sheet1!E30</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
@@ -8463,20 +8509,20 @@
         <v>2. Never Been Marcused</v>
       </c>
       <c r="D29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E29" s="4" t="str">
         <f>Sheet1!E31</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H29" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
@@ -8488,20 +8534,20 @@
         <v>3. The Dark Night</v>
       </c>
       <c r="D30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E30" s="4" t="str">
         <f>Sheet1!E32</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G30" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H30" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
@@ -8513,20 +8559,20 @@
         <v>4. The Ex-Files</v>
       </c>
       <c r="D31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E31" s="4" t="str">
         <f>Sheet1!E33</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F31" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
@@ -8538,20 +8584,20 @@
         <v>5. The Serena Also Rises</v>
       </c>
       <c r="D32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E32" s="4" t="str">
         <f>Sheet1!E34</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
@@ -8563,20 +8609,20 @@
         <v>6. New Haven Can Wait</v>
       </c>
       <c r="D33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E33" s="4" t="str">
         <f>Sheet1!E35</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
@@ -8588,20 +8634,20 @@
         <v>7. Chuck in Real Life</v>
       </c>
       <c r="D34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E34" s="4" t="str">
         <f>Sheet1!E36</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F34" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H34" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
@@ -8613,20 +8659,20 @@
         <v>8. Pret-a-Poor-J</v>
       </c>
       <c r="D35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E35" s="4" t="str">
         <f>Sheet1!E37</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
@@ -8638,20 +8684,20 @@
         <v>9. There Might be Blood</v>
       </c>
       <c r="D36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E36" s="4" t="str">
         <f>Sheet1!E38</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G36" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
@@ -8663,20 +8709,20 @@
         <v>10. Bonfire of the Vanity</v>
       </c>
       <c r="D37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E37" s="4" t="str">
         <f>Sheet1!E39</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
@@ -8688,20 +8734,20 @@
         <v>11. The Magnificent Archibalds</v>
       </c>
       <c r="D38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E38" s="4" t="str">
         <f>Sheet1!E40</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
@@ -8713,20 +8759,20 @@
         <v>12. It's a Wonderful Lie</v>
       </c>
       <c r="D39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E39" s="4" t="str">
         <f>Sheet1!E41</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G39" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H39" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
@@ -8738,20 +8784,20 @@
         <v>13. O Brother, Where Bart Thou?</v>
       </c>
       <c r="D40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E40" s="4" t="str">
         <f>Sheet1!E42</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H40" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
@@ -8763,20 +8809,20 @@
         <v>14. In the Realm of the Basses</v>
       </c>
       <c r="D41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E41" s="4" t="str">
         <f>Sheet1!E43</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G41" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H41" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
@@ -8788,20 +8834,20 @@
         <v>15. Gone with the Will</v>
       </c>
       <c r="D42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E42" s="4" t="str">
         <f>Sheet1!E44</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
@@ -8813,20 +8859,20 @@
         <v>16. You've Got Yale!</v>
       </c>
       <c r="D43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E43" s="4" t="str">
         <f>Sheet1!E45</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H43" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
@@ -8838,20 +8884,20 @@
         <v>17. Carrnal Knowledge</v>
       </c>
       <c r="D44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E44" s="4" t="str">
         <f>Sheet1!E46</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F44" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G44" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H44" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
@@ -8863,20 +8909,20 @@
         <v>18. The Age of Dissonance</v>
       </c>
       <c r="D45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E45" s="4" t="str">
         <f>Sheet1!E47</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F45" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G45" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H45" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
@@ -8884,23 +8930,23 @@
         <v>265</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E46" s="4" t="str">
         <f>Sheet1!E48</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -8915,20 +8961,20 @@
         <v>20. Remains of the J</v>
       </c>
       <c r="D47" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E47" s="4" t="str">
         <f>Sheet1!E49</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F47" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
@@ -8940,20 +8986,20 @@
         <v>21. Seder Anything</v>
       </c>
       <c r="D48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E48" s="4" t="str">
         <f>Sheet1!E50</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.3">
@@ -8965,20 +9011,20 @@
         <v>22. Southern Gentlemen Prefer Blondes</v>
       </c>
       <c r="D49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E49" s="4" t="str">
         <f>Sheet1!E51</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F49" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G49" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.3">
@@ -8990,20 +9036,20 @@
         <v>23. The Wrath of Con</v>
       </c>
       <c r="D50" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E50" s="4" t="str">
         <f>Sheet1!E52</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F50" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H50" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.3">
@@ -9015,14 +9061,14 @@
         <v>24. Valley Girls</v>
       </c>
       <c r="D51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E51" s="4" t="str">
         <f>Sheet1!E53</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.3">
@@ -9034,14 +9080,14 @@
         <v>25. The Goodbye Gossip Girl</v>
       </c>
       <c r="D52" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E52" s="4" t="str">
         <f>Sheet1!E54</f>
         <v>https://inogift.github.io/ggirl/GG_S2/</v>
       </c>
       <c r="F52" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.3">
@@ -9050,33 +9096,33 @@
         <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E53" s="4">
         <f>Sheet1!E55</f>
         <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C54" t="str">
         <f>Sheet1!C56</f>
         <v>SEASON 3</v>
       </c>
       <c r="D54" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E54" s="4">
         <f>Sheet1!E56</f>
         <v>0</v>
       </c>
       <c r="F54" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.3">
@@ -9088,23 +9134,23 @@
         <v>1. Reversals of Fortune</v>
       </c>
       <c r="D55" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E55" s="4" t="str">
         <f>Sheet1!E57</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F55" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H55" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L55" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.3">
@@ -9116,23 +9162,23 @@
         <v>2. The Freshmen</v>
       </c>
       <c r="D56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E56" s="4" t="str">
         <f>Sheet1!E58</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G56" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L56" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.3">
@@ -9144,20 +9190,20 @@
         <v>3. The Lost Boy</v>
       </c>
       <c r="D57" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E57" s="4" t="str">
         <f>Sheet1!E59</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F57" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G57" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H57" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
@@ -9169,20 +9215,20 @@
         <v>4. Dan de Fleurette</v>
       </c>
       <c r="D58" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E58" s="4" t="str">
         <f>Sheet1!E60</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F58" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H58" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
@@ -9194,20 +9240,20 @@
         <v>5. Rufus Getting Married</v>
       </c>
       <c r="D59" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E59" s="4" t="str">
         <f>Sheet1!E61</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
@@ -9219,20 +9265,20 @@
         <v>6. Enough About Eve</v>
       </c>
       <c r="D60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E60" s="4" t="str">
         <f>Sheet1!E62</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G60" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H60" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.3">
@@ -9244,20 +9290,20 @@
         <v>7. How to Succeed in Bassness</v>
       </c>
       <c r="D61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E61" s="4" t="str">
         <f>Sheet1!E63</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F61" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H61" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
@@ -9269,20 +9315,20 @@
         <v>8. The Grandfather: Part II</v>
       </c>
       <c r="D62" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E62" s="4" t="str">
         <f>Sheet1!E64</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F62" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G62" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H62" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.3">
@@ -9294,20 +9340,20 @@
         <v>9. They Shoot Humphreys, Don't They?</v>
       </c>
       <c r="D63" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E63" s="4" t="str">
         <f>Sheet1!E65</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F63" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H63" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
@@ -9319,20 +9365,20 @@
         <v>10. The Last Days of Disco Stick</v>
       </c>
       <c r="D64" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E64" s="4" t="str">
         <f>Sheet1!E66</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F64" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.3">
@@ -9344,20 +9390,20 @@
         <v>11. The Treasure of Serena Madre</v>
       </c>
       <c r="D65" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E65" s="4" t="str">
         <f>Sheet1!E67</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F65" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.3">
@@ -9369,20 +9415,20 @@
         <v>12. The Debarted</v>
       </c>
       <c r="D66" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E66" s="4" t="str">
         <f>Sheet1!E68</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F66" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G66" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.3">
@@ -9394,20 +9440,20 @@
         <v>13. The Hurt Locket</v>
       </c>
       <c r="D67" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E67" s="4" t="str">
         <f>Sheet1!E69</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F67" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G67" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H67" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.3">
@@ -9419,20 +9465,20 @@
         <v>14. The Lady Vanished</v>
       </c>
       <c r="D68" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E68" s="4" t="str">
         <f>Sheet1!E70</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F68" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H68" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.3">
@@ -9444,20 +9490,20 @@
         <v>15. The Sixteen Year Old Virgin</v>
       </c>
       <c r="D69" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E69" s="4" t="str">
         <f>Sheet1!E71</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F69" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G69" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H69" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.3">
@@ -9469,20 +9515,20 @@
         <v>16. The Empire Strikes Jack</v>
       </c>
       <c r="D70" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E70" s="4" t="str">
         <f>Sheet1!E72</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F70" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H70" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.3">
@@ -9494,20 +9540,20 @@
         <v>17. Inglourious Bassterds</v>
       </c>
       <c r="D71" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E71" s="4" t="str">
         <f>Sheet1!E73</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F71" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G71" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H71" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.3">
@@ -9519,20 +9565,20 @@
         <v>18. The Unblairable Lightness of Being</v>
       </c>
       <c r="D72" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E72" s="4" t="str">
         <f>Sheet1!E74</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F72" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.3">
@@ -9544,20 +9590,20 @@
         <v>19. Dr. Estrangeloved</v>
       </c>
       <c r="D73" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E73" s="4" t="str">
         <f>Sheet1!E75</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F73" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.3">
@@ -9569,20 +9615,20 @@
         <v>20. It's a Dad, Dad, Dad, Dad World</v>
       </c>
       <c r="D74" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E74" s="4" t="str">
         <f>Sheet1!E76</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F74" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G74" t="s">
+        <v>373</v>
+      </c>
+      <c r="H74" t="s">
         <v>374</v>
-      </c>
-      <c r="H74" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.3">
@@ -9594,20 +9640,20 @@
         <v>21. Ex-Husbands and Wives</v>
       </c>
       <c r="D75" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E75" s="4" t="str">
         <f>Sheet1!E77</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F75" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G75" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.3">
@@ -9619,20 +9665,20 @@
         <v>22. Last Tango, Then Paris</v>
       </c>
       <c r="D76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E76" s="4" t="str">
         <f>Sheet1!E78</f>
         <v>https://inogift.github.io/ggirl/GG_S3/</v>
       </c>
       <c r="F76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G76" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.3">
@@ -9641,33 +9687,33 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E77" s="4">
         <f>Sheet1!E79</f>
         <v>0</v>
       </c>
       <c r="F77" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C78" t="str">
         <f>Sheet1!C80</f>
         <v>SEASON 4</v>
       </c>
       <c r="D78" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E78" s="4">
         <f>Sheet1!E80</f>
         <v>0</v>
       </c>
       <c r="F78" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.3">
@@ -9679,23 +9725,23 @@
         <v>1. Belles de Jour</v>
       </c>
       <c r="D79" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E79" s="4" t="str">
         <f>Sheet1!E81</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F79" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G79" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M79" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.3">
@@ -9707,26 +9753,26 @@
         <v>2. Double Identity</v>
       </c>
       <c r="D80" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E80" s="4" t="str">
         <f>Sheet1!E82</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F80" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G80" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M80" t="s">
+        <v>442</v>
+      </c>
+      <c r="O80" t="s">
         <v>443</v>
-      </c>
-      <c r="O80" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
@@ -9738,23 +9784,23 @@
         <v>3. The Undergraduates</v>
       </c>
       <c r="D81" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E81" s="4" t="str">
         <f>Sheet1!E83</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F81" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G81" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H81" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M81" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
@@ -9766,20 +9812,20 @@
         <v>4. Touch of Eva</v>
       </c>
       <c r="D82" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E82" s="4" t="str">
         <f>Sheet1!E84</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F82" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G82" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
@@ -9791,20 +9837,20 @@
         <v>5. Goodbye, Columbia</v>
       </c>
       <c r="D83" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E83" s="4" t="str">
         <f>Sheet1!E85</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F83" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H83" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
@@ -9816,20 +9862,20 @@
         <v>6. Easy J</v>
       </c>
       <c r="D84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E84" s="4" t="str">
         <f>Sheet1!E86</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F84" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G84" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H84" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
@@ -9841,23 +9887,23 @@
         <v>7. War at the Roses</v>
       </c>
       <c r="D85" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E85" s="4" t="str">
         <f>Sheet1!E87</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F85" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G85" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M85" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
@@ -9869,20 +9915,20 @@
         <v>8. Juliet Doesn't Live Here Anymore</v>
       </c>
       <c r="D86" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E86" s="4" t="str">
         <f>Sheet1!E88</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F86" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
@@ -9894,20 +9940,20 @@
         <v>9. The Witches of Bushwick</v>
       </c>
       <c r="D87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E87" s="4" t="str">
         <f>Sheet1!E89</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
@@ -9919,20 +9965,20 @@
         <v>10. Gaslit</v>
       </c>
       <c r="D88" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E88" s="4" t="str">
         <f>Sheet1!E90</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F88" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G88" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H88" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
@@ -9944,20 +9990,20 @@
         <v>11. The Townie</v>
       </c>
       <c r="D89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E89" s="4" t="str">
         <f>Sheet1!E91</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F89" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G89" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
@@ -9969,20 +10015,20 @@
         <v>12. The Kids Are Not All Right</v>
       </c>
       <c r="D90" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E90" s="4" t="str">
         <f>Sheet1!E92</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F90" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G90" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H90" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
@@ -9994,20 +10040,20 @@
         <v>13. Damien Darko</v>
       </c>
       <c r="D91" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E91" s="4" t="str">
         <f>Sheet1!E93</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F91" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G91" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H91" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
@@ -10019,20 +10065,20 @@
         <v>14. Panic Roommate</v>
       </c>
       <c r="D92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E92" s="4" t="str">
         <f>Sheet1!E94</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F92" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G92" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H92" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
@@ -10044,20 +10090,20 @@
         <v>15. It-Girl Happened One Night</v>
       </c>
       <c r="D93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E93" s="4" t="str">
         <f>Sheet1!E95</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G93" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H93" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
@@ -10069,20 +10115,20 @@
         <v>16. While You Weren't Sleeping</v>
       </c>
       <c r="D94" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E94" s="4" t="str">
         <f>Sheet1!E96</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F94" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G94" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H94" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
@@ -10094,20 +10140,20 @@
         <v>17. Empire of the Son</v>
       </c>
       <c r="D95" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E95" s="4" t="str">
         <f>Sheet1!E97</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F95" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G95" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H95" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
@@ -10119,20 +10165,20 @@
         <v>18. The Kids Stay in the Picture</v>
       </c>
       <c r="D96" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E96" s="4" t="str">
         <f>Sheet1!E98</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F96" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G96" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H96" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.3">
@@ -10144,20 +10190,20 @@
         <v>19. Petty in Pink</v>
       </c>
       <c r="D97" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E97" s="4" t="str">
         <f>Sheet1!E99</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F97" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G97" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H97" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.3">
@@ -10169,20 +10215,20 @@
         <v>20. The Princesses and the Frog</v>
       </c>
       <c r="D98" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E98" s="4" t="str">
         <f>Sheet1!E100</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F98" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G98" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H98" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.3">
@@ -10194,20 +10240,20 @@
         <v>21. Shattered Bass</v>
       </c>
       <c r="D99" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E99" s="4" t="str">
         <f>Sheet1!E101</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F99" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G99" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H99" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.3">
@@ -10219,20 +10265,20 @@
         <v>22. The Wrong Goodbye</v>
       </c>
       <c r="D100" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E100" s="4" t="str">
         <f>Sheet1!E102</f>
         <v>https://inogift.github.io/ggirl/GG_S4/</v>
       </c>
       <c r="F100" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G100" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H100" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.3">
@@ -10241,33 +10287,33 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D101" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E101" s="4">
         <f>Sheet1!E103</f>
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C102" t="str">
         <f>Sheet1!C104</f>
         <v>SEASON 5</v>
       </c>
       <c r="D102" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E102" s="4">
         <f>Sheet1!E104</f>
         <v>0</v>
       </c>
       <c r="F102" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.3">
@@ -10279,20 +10325,20 @@
         <v>1. Yes, Then Zero</v>
       </c>
       <c r="D103" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E103" s="4" t="str">
         <f>Sheet1!E105</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F103" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G103" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H103" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.3">
@@ -10304,20 +10350,20 @@
         <v>2. Beauty and the Feast</v>
       </c>
       <c r="D104" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E104" s="4" t="str">
         <f>Sheet1!E106</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F104" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G104" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H104" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.3">
@@ -10329,20 +10375,20 @@
         <v>3. The Jewel of Denial</v>
       </c>
       <c r="D105" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E105" s="4" t="str">
         <f>Sheet1!E107</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F105" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G105" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H105" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.3">
@@ -10354,20 +10400,20 @@
         <v>4. Memoirs of an Invisible Dan</v>
       </c>
       <c r="D106" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E106" s="4" t="str">
         <f>Sheet1!E108</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F106" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G106" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H106" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.3">
@@ -10379,20 +10425,20 @@
         <v>5. The Fasting and the Furious</v>
       </c>
       <c r="D107" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E107" s="4" t="str">
         <f>Sheet1!E109</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F107" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G107" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H107" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.3">
@@ -10404,20 +10450,20 @@
         <v>6. I Am Number Nine</v>
       </c>
       <c r="D108" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E108" s="4" t="str">
         <f>Sheet1!E110</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F108" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G108" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H108" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.3">
@@ -10429,20 +10475,20 @@
         <v>7. The Big Sleep No More</v>
       </c>
       <c r="D109" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E109" s="4" t="str">
         <f>Sheet1!E111</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F109" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G109" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H109" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.3">
@@ -10454,20 +10500,20 @@
         <v>8. All the Pretty Sources</v>
       </c>
       <c r="D110" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E110" s="4" t="str">
         <f>Sheet1!E112</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F110" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G110" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H110" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.3">
@@ -10479,20 +10525,20 @@
         <v>9. Rhodes to Perdition</v>
       </c>
       <c r="D111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E111" s="4" t="str">
         <f>Sheet1!E113</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G111" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H111" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.3">
@@ -10504,20 +10550,20 @@
         <v>10. Riding in Town Cars with Boys</v>
       </c>
       <c r="D112" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E112" s="4" t="str">
         <f>Sheet1!E114</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F112" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G112" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H112" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.3">
@@ -10529,20 +10575,20 @@
         <v>11. The End of the Affair?</v>
       </c>
       <c r="D113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E113" s="4" t="str">
         <f>Sheet1!E115</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F113" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G113" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H113" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.3">
@@ -10554,20 +10600,20 @@
         <v>12. Father and the Bride</v>
       </c>
       <c r="D114" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E114" s="4" t="str">
         <f>Sheet1!E116</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F114" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G114" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H114" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.3">
@@ -10579,20 +10625,20 @@
         <v>13. G.G.</v>
       </c>
       <c r="D115" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E115" s="4" t="str">
         <f>Sheet1!E117</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F115" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G115" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H115" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.3">
@@ -10604,20 +10650,20 @@
         <v>14. The Backup Dan</v>
       </c>
       <c r="D116" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E116" s="4" t="str">
         <f>Sheet1!E118</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F116" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G116" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H116" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.3">
@@ -10629,20 +10675,20 @@
         <v>15. Crazy, Cupid, Love</v>
       </c>
       <c r="D117" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E117" s="4" t="str">
         <f>Sheet1!E119</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F117" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G117" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H117" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.3">
@@ -10654,20 +10700,20 @@
         <v>16. Cross Rhodes</v>
       </c>
       <c r="D118" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E118" s="4" t="str">
         <f>Sheet1!E120</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F118" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G118" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H118" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.3">
@@ -10679,20 +10725,20 @@
         <v>17. The Princess Dowry</v>
       </c>
       <c r="D119" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E119" s="4" t="str">
         <f>Sheet1!E121</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F119" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G119" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H119" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.3">
@@ -10704,20 +10750,20 @@
         <v>18. Con-Heir</v>
       </c>
       <c r="D120" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E120" s="4" t="str">
         <f>Sheet1!E122</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F120" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G120" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H120" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.3">
@@ -10729,20 +10775,20 @@
         <v>19. It Girl, Interrupted</v>
       </c>
       <c r="D121" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E121" s="4" t="str">
         <f>Sheet1!E123</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F121" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G121" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H121" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.3">
@@ -10754,20 +10800,20 @@
         <v>20. Salon of the Dead</v>
       </c>
       <c r="D122" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E122" s="4" t="str">
         <f>Sheet1!E124</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F122" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G122" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H122" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.3">
@@ -10779,20 +10825,20 @@
         <v>21. Despicable B</v>
       </c>
       <c r="D123" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E123" s="4" t="str">
         <f>Sheet1!E125</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F123" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G123" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H123" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.3">
@@ -10804,20 +10850,20 @@
         <v>22. Raiders of the Lost Art</v>
       </c>
       <c r="D124" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E124" s="4" t="str">
         <f>Sheet1!E126</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F124" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G124" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H124" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.3">
@@ -10829,20 +10875,20 @@
         <v>23. The Fugitives</v>
       </c>
       <c r="D125" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E125" s="4" t="str">
         <f>Sheet1!E127</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F125" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G125" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H125" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.3">
@@ -10854,20 +10900,20 @@
         <v>24. The Return of the Ring</v>
       </c>
       <c r="D126" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E126" s="4" t="str">
         <f>Sheet1!E128</f>
         <v>https://inogift.github.io/ggirl/GG_S5/</v>
       </c>
       <c r="F126" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G126" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H126" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.3">
@@ -10876,33 +10922,33 @@
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E127" s="4">
         <f>Sheet1!E129</f>
         <v>0</v>
       </c>
       <c r="F127" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C128" t="str">
         <f>Sheet1!C130</f>
         <v>SEASON 6</v>
       </c>
       <c r="D128" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E128" s="4">
         <f>Sheet1!E130</f>
         <v>0</v>
       </c>
       <c r="F128" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
@@ -10914,14 +10960,14 @@
         <v>1. Gone Maybe Gone</v>
       </c>
       <c r="D129" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E129" s="4" t="str">
         <f>Sheet1!E131</f>
         <v>https://inogift.github.io/ggirl/GG_S6/6x01-Gone%20Maybe%20Gone.html</v>
       </c>
       <c r="F129" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
@@ -10933,14 +10979,14 @@
         <v>2. High Infidelity</v>
       </c>
       <c r="D130" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E130" s="4" t="str">
         <f>Sheet1!E132</f>
         <v>https://inogift.github.io/ggirl/GG_S6/6x02-High%20Infidelity.html</v>
       </c>
       <c r="F130" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
@@ -10952,14 +10998,14 @@
         <v>3. Dirty Rotten Scandals</v>
       </c>
       <c r="D131" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E131" s="4" t="str">
         <f>Sheet1!E133</f>
         <v>https://inogift.github.io/ggirl/GG_S6/6x03-Dirty%20Rotten%20Scandals.html</v>
       </c>
       <c r="F131" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
@@ -10971,14 +11017,14 @@
         <v>4. Portrait of a Lady Alexander</v>
       </c>
       <c r="D132" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E132" s="4" t="str">
         <f>Sheet1!E134</f>
         <v>https://inogift.github.io/ggirl/GG_S6/6x04-Portrait%20of%20a%20Lady%20Alexander.html</v>
       </c>
       <c r="F132" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
@@ -10990,14 +11036,14 @@
         <v>5. Monstrous Ball</v>
       </c>
       <c r="D133" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E133" s="4" t="str">
         <f>Sheet1!E135</f>
         <v>https://inogift.github.io/ggirl/GG_S6/</v>
       </c>
       <c r="F133" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
@@ -11009,14 +11055,14 @@
         <v>6. Where the Vile Things Are</v>
       </c>
       <c r="D134" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E134" s="4" t="str">
         <f>Sheet1!E136</f>
         <v>https://inogift.github.io/ggirl/GG_S6/</v>
       </c>
       <c r="F134" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
@@ -11028,14 +11074,14 @@
         <v>7. Save the Last Chance</v>
       </c>
       <c r="D135" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E135" s="4" t="str">
         <f>Sheet1!E137</f>
         <v>https://inogift.github.io/ggirl/GG_S6/</v>
       </c>
       <c r="F135" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
@@ -11047,14 +11093,14 @@
         <v>8. It's Really Complicated</v>
       </c>
       <c r="D136" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E136" s="4" t="str">
         <f>Sheet1!E138</f>
         <v>https://inogift.github.io/ggirl/GG_S6/</v>
       </c>
       <c r="F136" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
@@ -11066,14 +11112,14 @@
         <v>9. The Revengers</v>
       </c>
       <c r="D137" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E137" s="4" t="str">
         <f>Sheet1!E139</f>
         <v>https://inogift.github.io/ggirl/GG_S6/</v>
       </c>
       <c r="F137" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/ggirl/Gossip girl S_list_20200726.xlsx
+++ b/ggirl/Gossip girl S_list_20200726.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sys4u-my.sharepoint.com/personal/inog74_plateer_com/Documents/git/inogift/inogift.github.io/ggirl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="551" documentId="11_AD4D066CA252ABDACC1048DF89A479F349B8DF51" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7A6836F7-517F-438D-B98F-88E188ADBD2D}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="11_AD4D066CA252ABDACC1048DF89A479F349B8DF51" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6DA7134-16A9-4D17-A4C0-C0651B8C0BF2}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="300" windowWidth="26040" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26865" yWindow="3795" windowWidth="26370" windowHeight="20295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="530">
   <si>
     <t>GOSSIP GIRL (2007–2012) - EPISODES WITH SCRIPTS</t>
   </si>
@@ -3575,6 +3575,14 @@
   </si>
   <si>
     <t>soiree 파티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재정리 검토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://transcripts.foreverdreaming.org/viewforum.php?f=160</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4046,40 +4054,40 @@
   <dimension ref="B2:L146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="9" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="4.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="39.75" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="80.125" customWidth="1"/>
-    <col min="6" max="6" width="4.375" customWidth="1"/>
-    <col min="7" max="7" width="55.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="80.140625" customWidth="1"/>
+    <col min="6" max="6" width="4.35546875" customWidth="1"/>
+    <col min="7" max="7" width="55.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="67.5" style="6" customWidth="1"/>
-    <col min="9" max="10" width="19.875" style="5" customWidth="1"/>
+    <col min="9" max="10" width="19.85546875" style="5" customWidth="1"/>
     <col min="11" max="11" width="9" style="5"/>
     <col min="12" max="12" width="14" style="5" customWidth="1"/>
     <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="5" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="22.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="5" t="s">
         <v>267</v>
       </c>
@@ -4092,7 +4100,7 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="24" t="s">
         <v>507</v>
       </c>
@@ -4102,7 +4110,7 @@
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -4110,7 +4118,15 @@
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="9" spans="2:12" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="9" t="s">
         <v>266</v>
       </c>
@@ -4128,7 +4144,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="10" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="9" t="s">
         <v>265</v>
       </c>
@@ -4157,7 +4173,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="11" spans="2:12" s="9" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" s="9" customFormat="1" ht="193.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="9" t="s">
         <v>265</v>
       </c>
@@ -4186,7 +4202,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="9" t="s">
         <v>265</v>
       </c>
@@ -4215,7 +4231,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="2:12" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" s="9" customFormat="1" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="9" t="s">
         <v>265</v>
       </c>
@@ -4244,7 +4260,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="14" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="9" t="s">
         <v>265</v>
       </c>
@@ -4273,7 +4289,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="9" t="s">
         <v>265</v>
       </c>
@@ -4302,7 +4318,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="16" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="9" t="s">
         <v>265</v>
       </c>
@@ -4331,7 +4347,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="9" t="s">
         <v>265</v>
       </c>
@@ -4360,7 +4376,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="9" t="s">
         <v>265</v>
       </c>
@@ -4389,7 +4405,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="9" t="s">
         <v>265</v>
       </c>
@@ -4418,7 +4434,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="20" spans="2:11" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" s="9" customFormat="1" ht="175.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="9" t="s">
         <v>265</v>
       </c>
@@ -4450,7 +4466,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="9" t="s">
         <v>265</v>
       </c>
@@ -4482,7 +4498,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="9" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" s="9" customFormat="1" ht="193.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="9" t="s">
         <v>265</v>
       </c>
@@ -4511,7 +4527,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="23" spans="2:11" s="9" customFormat="1" ht="396" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" s="9" customFormat="1" ht="409.6" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="9" t="s">
         <v>265</v>
       </c>
@@ -4540,7 +4556,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="9" customFormat="1" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" s="9" customFormat="1" ht="263.60000000000002" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="9" t="s">
         <v>265</v>
       </c>
@@ -4569,7 +4585,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="25" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="9" t="s">
         <v>265</v>
       </c>
@@ -4598,7 +4614,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="9" t="s">
         <v>265</v>
       </c>
@@ -4627,7 +4643,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="9" t="s">
         <v>265</v>
       </c>
@@ -4656,7 +4672,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="28" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E28" s="14"/>
       <c r="H28" s="11"/>
       <c r="I28" s="6" t="s">
@@ -4666,7 +4682,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="29" spans="2:11" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="9" t="s">
         <v>266</v>
       </c>
@@ -4682,7 +4698,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="2:11" s="9" customFormat="1" ht="198" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" s="9" customFormat="1" ht="210.9" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="9" t="s">
         <v>265</v>
       </c>
@@ -4711,7 +4727,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="31" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="9" t="s">
         <v>265</v>
       </c>
@@ -4740,7 +4756,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="32" spans="2:11" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="9" t="s">
         <v>265</v>
       </c>
@@ -4769,7 +4785,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="33" spans="2:10" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" s="9" customFormat="1" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="9" t="s">
         <v>265</v>
       </c>
@@ -4798,7 +4814,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="9" t="s">
         <v>265</v>
       </c>
@@ -4827,7 +4843,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="35" spans="2:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" s="9" customFormat="1" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="9" t="s">
         <v>265</v>
       </c>
@@ -4856,7 +4872,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="36" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="9" t="s">
         <v>265</v>
       </c>
@@ -4885,7 +4901,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="37" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="9" t="s">
         <v>265</v>
       </c>
@@ -4914,7 +4930,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="38" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="9" t="s">
         <v>265</v>
       </c>
@@ -4943,7 +4959,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="39" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="9" t="s">
         <v>265</v>
       </c>
@@ -4972,7 +4988,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="40" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="9" t="s">
         <v>265</v>
       </c>
@@ -5001,7 +5017,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="41" spans="2:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" s="9" customFormat="1" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="9" t="s">
         <v>265</v>
       </c>
@@ -5030,7 +5046,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="9" t="s">
         <v>265</v>
       </c>
@@ -5059,7 +5075,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="9" t="s">
         <v>265</v>
       </c>
@@ -5088,7 +5104,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="44" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="9" t="s">
         <v>265</v>
       </c>
@@ -5117,7 +5133,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="45" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="9" t="s">
         <v>265</v>
       </c>
@@ -5146,7 +5162,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="46" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="9" t="s">
         <v>265</v>
       </c>
@@ -5175,7 +5191,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="47" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="9" t="s">
         <v>265</v>
       </c>
@@ -5204,7 +5220,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="48" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="15">
         <v>19</v>
       </c>
@@ -5228,7 +5244,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="9" t="s">
         <v>265</v>
       </c>
@@ -5257,7 +5273,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="50" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="9" t="s">
         <v>265</v>
       </c>
@@ -5286,7 +5302,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="51" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="9" t="s">
         <v>265</v>
       </c>
@@ -5315,7 +5331,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="52" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="9" t="s">
         <v>265</v>
       </c>
@@ -5344,7 +5360,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="53" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="9" t="s">
         <v>265</v>
       </c>
@@ -5373,7 +5389,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="54" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="9" t="s">
         <v>265</v>
       </c>
@@ -5402,7 +5418,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E55" s="14"/>
       <c r="H55" s="11"/>
       <c r="I55" s="6" t="s">
@@ -5412,7 +5428,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="56" spans="2:10" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="9" t="s">
         <v>266</v>
       </c>
@@ -5428,7 +5444,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="9" t="s">
         <v>265</v>
       </c>
@@ -5457,7 +5473,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="58" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="9" t="s">
         <v>265</v>
       </c>
@@ -5486,7 +5502,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="59" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="9" t="s">
         <v>265</v>
       </c>
@@ -5515,7 +5531,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="60" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="9" t="s">
         <v>265</v>
       </c>
@@ -5544,7 +5560,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="61" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="9" t="s">
         <v>265</v>
       </c>
@@ -5573,7 +5589,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="62" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="9" t="s">
         <v>265</v>
       </c>
@@ -5602,7 +5618,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="63" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="9" t="s">
         <v>265</v>
       </c>
@@ -5631,7 +5647,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="64" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="9" t="s">
         <v>265</v>
       </c>
@@ -5660,7 +5676,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="65" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="9" t="s">
         <v>265</v>
       </c>
@@ -5689,7 +5705,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="66" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="9" t="s">
         <v>265</v>
       </c>
@@ -5718,7 +5734,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="9" t="s">
         <v>265</v>
       </c>
@@ -5747,7 +5763,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="68" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="9" t="s">
         <v>265</v>
       </c>
@@ -5776,7 +5792,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="9" t="s">
         <v>265</v>
       </c>
@@ -5805,7 +5821,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="70" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="9" t="s">
         <v>265</v>
       </c>
@@ -5834,7 +5850,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="71" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="9" t="s">
         <v>265</v>
       </c>
@@ -5863,7 +5879,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="72" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="9" t="s">
         <v>265</v>
       </c>
@@ -5892,7 +5908,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="73" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="9" t="s">
         <v>265</v>
       </c>
@@ -5921,7 +5937,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="74" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="9" t="s">
         <v>265</v>
       </c>
@@ -5950,7 +5966,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="75" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="9" t="s">
         <v>265</v>
       </c>
@@ -5979,7 +5995,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="76" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="9" t="s">
         <v>265</v>
       </c>
@@ -6008,7 +6024,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="77" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="9" t="s">
         <v>265</v>
       </c>
@@ -6037,7 +6053,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="78" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="9" t="s">
         <v>265</v>
       </c>
@@ -6066,7 +6082,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="79" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="E79" s="14"/>
       <c r="H79" s="11"/>
       <c r="I79" s="6" t="s">
@@ -6076,7 +6092,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="80" spans="2:10" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="9" t="s">
         <v>266</v>
       </c>
@@ -6092,7 +6108,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="81" spans="2:10" s="9" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10" s="9" customFormat="1" ht="123" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="9" t="s">
         <v>265</v>
       </c>
@@ -6121,7 +6137,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="82" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="9" t="s">
         <v>265</v>
       </c>
@@ -6150,7 +6166,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="83" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="9" t="s">
         <v>265</v>
       </c>
@@ -6179,7 +6195,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="84" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="9" t="s">
         <v>265</v>
       </c>
@@ -6208,7 +6224,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="85" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="9" t="s">
         <v>265</v>
       </c>
@@ -6237,7 +6253,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="86" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="9" t="s">
         <v>265</v>
       </c>
@@ -6266,7 +6282,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="87" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="9" t="s">
         <v>265</v>
       </c>
@@ -6295,7 +6311,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="9" t="s">
         <v>265</v>
       </c>
@@ -6324,7 +6340,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="89" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="9" t="s">
         <v>265</v>
       </c>
@@ -6353,7 +6369,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="9" t="s">
         <v>265</v>
       </c>
@@ -6382,7 +6398,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="91" spans="2:10" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:10" s="9" customFormat="1" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="9" t="s">
         <v>265</v>
       </c>
@@ -6411,7 +6427,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="92" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="9" t="s">
         <v>265</v>
       </c>
@@ -6440,7 +6456,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="93" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="9" t="s">
         <v>265</v>
       </c>
@@ -6469,7 +6485,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="94" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="9" t="s">
         <v>265</v>
       </c>
@@ -6498,7 +6514,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="95" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="9" t="s">
         <v>265</v>
       </c>
@@ -6527,7 +6543,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="96" spans="2:10" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:10" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="9" t="s">
         <v>265</v>
       </c>
@@ -6556,7 +6572,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="97" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="9" t="s">
         <v>265</v>
       </c>
@@ -6585,7 +6601,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="98" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="9" t="s">
         <v>265</v>
       </c>
@@ -6614,7 +6630,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="99" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="9" t="s">
         <v>265</v>
       </c>
@@ -6643,7 +6659,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="100" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="9" t="s">
         <v>265</v>
       </c>
@@ -6672,7 +6688,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="101" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="9" t="s">
         <v>265</v>
       </c>
@@ -6704,7 +6720,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="102" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="9" t="s">
         <v>265</v>
       </c>
@@ -6733,7 +6749,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="103" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="9" t="s">
         <v>265</v>
       </c>
@@ -6749,7 +6765,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="2:12" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="9" t="s">
         <v>266</v>
       </c>
@@ -6765,7 +6781,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="105" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="9" t="s">
         <v>265</v>
       </c>
@@ -6794,7 +6810,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="106" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="9" t="s">
         <v>265</v>
       </c>
@@ -6823,7 +6839,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="107" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="9" t="s">
         <v>265</v>
       </c>
@@ -6852,7 +6868,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="108" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="9" t="s">
         <v>265</v>
       </c>
@@ -6881,7 +6897,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="109" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="9" t="s">
         <v>265</v>
       </c>
@@ -6910,7 +6926,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="110" spans="2:12" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="9" t="s">
         <v>265</v>
       </c>
@@ -6942,7 +6958,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="111" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="9" t="s">
         <v>265</v>
       </c>
@@ -6971,7 +6987,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="112" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="9" t="s">
         <v>265</v>
       </c>
@@ -7000,7 +7016,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="113" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="9" t="s">
         <v>265</v>
       </c>
@@ -7029,7 +7045,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="114" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="9" t="s">
         <v>265</v>
       </c>
@@ -7058,7 +7074,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="115" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="9" t="s">
         <v>265</v>
       </c>
@@ -7087,7 +7103,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="116" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="9" t="s">
         <v>265</v>
       </c>
@@ -7116,7 +7132,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="117" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="9" t="s">
         <v>265</v>
       </c>
@@ -7145,7 +7161,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="118" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="9" t="s">
         <v>265</v>
       </c>
@@ -7174,7 +7190,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="119" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="9" t="s">
         <v>265</v>
       </c>
@@ -7203,7 +7219,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="120" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="9" t="s">
         <v>265</v>
       </c>
@@ -7232,7 +7248,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="121" spans="2:12" s="9" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:12" s="9" customFormat="1" ht="70.3" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="9" t="s">
         <v>265</v>
       </c>
@@ -7264,7 +7280,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="122" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="9" t="s">
         <v>265</v>
       </c>
@@ -7293,7 +7309,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="123" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="9" t="s">
         <v>265</v>
       </c>
@@ -7322,7 +7338,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="124" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="9" t="s">
         <v>265</v>
       </c>
@@ -7351,7 +7367,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="125" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="9" t="s">
         <v>265</v>
       </c>
@@ -7380,7 +7396,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="126" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="9" t="s">
         <v>265</v>
       </c>
@@ -7409,7 +7425,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="127" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="9" t="s">
         <v>265</v>
       </c>
@@ -7438,7 +7454,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="128" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="9" t="s">
         <v>265</v>
       </c>
@@ -7470,7 +7486,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="129" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="9" t="s">
         <v>265</v>
       </c>
@@ -7483,7 +7499,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="130" spans="2:12" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:12" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="9" t="s">
         <v>266</v>
       </c>
@@ -7499,7 +7515,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="131" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="9" t="s">
         <v>265</v>
       </c>
@@ -7528,7 +7544,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="132" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="9" t="s">
         <v>265</v>
       </c>
@@ -7557,7 +7573,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="133" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="9" t="s">
         <v>265</v>
       </c>
@@ -7586,7 +7602,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="134" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="9" t="s">
         <v>265</v>
       </c>
@@ -7615,7 +7631,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="135" spans="2:12" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:12" s="9" customFormat="1" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="9" t="s">
         <v>265</v>
       </c>
@@ -7644,7 +7660,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="136" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="9" t="s">
         <v>265</v>
       </c>
@@ -7673,7 +7689,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="137" spans="2:12" s="9" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:12" s="9" customFormat="1" ht="52.75" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="9" t="s">
         <v>265</v>
       </c>
@@ -7702,7 +7718,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="138" spans="2:12" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:12" s="9" customFormat="1" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="9" t="s">
         <v>265</v>
       </c>
@@ -7731,7 +7747,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="139" spans="2:12" s="9" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:12" s="9" customFormat="1" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="9" t="s">
         <v>265</v>
       </c>
@@ -7760,7 +7776,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="140" spans="2:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:12" ht="35.15" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="9" t="s">
         <v>265</v>
       </c>
@@ -7780,11 +7796,11 @@
         <v>527</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="20"/>
       <c r="C141" s="21"/>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="20"/>
       <c r="C142" s="21"/>
       <c r="I142" s="5" t="s">
@@ -7794,19 +7810,19 @@
         <v>506</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="20"/>
       <c r="C143" s="22"/>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="20"/>
       <c r="C144" s="22"/>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="20"/>
       <c r="C145" s="22"/>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="20"/>
       <c r="C146" s="22"/>
     </row>
@@ -7969,9 +7985,10 @@
     <hyperlink ref="E140" r:id="rId150" xr:uid="{56324CE4-820E-4FC6-B916-01BC4502103B}"/>
     <hyperlink ref="E22" r:id="rId151" xr:uid="{3878B8FD-9759-45FE-8B7D-F11D778A9B63}"/>
     <hyperlink ref="E23" r:id="rId152" xr:uid="{E490E135-E825-4FE3-A2A2-2E9AF0F35385}"/>
+    <hyperlink ref="E7" r:id="rId153" xr:uid="{EE1A7958-60C5-4493-9B7E-BA0B0B1106F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId153"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId154"/>
 </worksheet>
 </file>
 
@@ -7984,27 +8001,27 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="97.625" customWidth="1"/>
+    <col min="3" max="3" width="97.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:3" ht="22.75" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="3:3" ht="112.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:3" ht="90" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -8026,23 +8043,23 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8:E137"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="4" width="2.875" customWidth="1"/>
-    <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="2.75" customWidth="1"/>
+    <col min="3" max="3" width="33.2109375" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="G3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>480</v>
       </c>
@@ -8057,7 +8074,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>265</v>
       </c>
@@ -8076,7 +8093,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>265</v>
       </c>
@@ -8095,7 +8112,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>265</v>
       </c>
@@ -8114,7 +8131,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>265</v>
       </c>
@@ -8133,7 +8150,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>265</v>
       </c>
@@ -8152,7 +8169,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>265</v>
       </c>
@@ -8171,7 +8188,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>265</v>
       </c>
@@ -8190,7 +8207,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>265</v>
       </c>
@@ -8209,7 +8226,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>265</v>
       </c>
@@ -8228,7 +8245,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>265</v>
       </c>
@@ -8247,7 +8264,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>265</v>
       </c>
@@ -8266,7 +8283,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" t="s">
         <v>265</v>
       </c>
@@ -8291,7 +8308,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" t="s">
         <v>265</v>
       </c>
@@ -8316,7 +8333,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>265</v>
       </c>
@@ -8341,7 +8358,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>265</v>
       </c>
@@ -8366,7 +8383,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>265</v>
       </c>
@@ -8391,7 +8408,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>265</v>
       </c>
@@ -8419,7 +8436,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
         <v>265</v>
       </c>
@@ -8444,7 +8461,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
         <v>482</v>
       </c>
@@ -8456,7 +8473,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>480</v>
       </c>
@@ -8475,7 +8492,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>265</v>
       </c>
@@ -8500,7 +8517,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" t="s">
         <v>265</v>
       </c>
@@ -8525,7 +8542,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" t="s">
         <v>265</v>
       </c>
@@ -8550,7 +8567,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" t="s">
         <v>265</v>
       </c>
@@ -8575,7 +8592,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" t="s">
         <v>265</v>
       </c>
@@ -8600,7 +8617,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" t="s">
         <v>265</v>
       </c>
@@ -8625,7 +8642,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" t="s">
         <v>265</v>
       </c>
@@ -8650,7 +8667,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" t="s">
         <v>265</v>
       </c>
@@ -8675,7 +8692,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" t="s">
         <v>265</v>
       </c>
@@ -8700,7 +8717,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" t="s">
         <v>265</v>
       </c>
@@ -8725,7 +8742,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" t="s">
         <v>265</v>
       </c>
@@ -8750,7 +8767,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" t="s">
         <v>265</v>
       </c>
@@ -8775,7 +8792,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" t="s">
         <v>265</v>
       </c>
@@ -8800,7 +8817,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" t="s">
         <v>265</v>
       </c>
@@ -8825,7 +8842,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" t="s">
         <v>265</v>
       </c>
@@ -8850,7 +8867,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>265</v>
       </c>
@@ -8875,7 +8892,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" t="s">
         <v>265</v>
       </c>
@@ -8900,7 +8917,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" t="s">
         <v>265</v>
       </c>
@@ -8925,7 +8942,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" t="s">
         <v>265</v>
       </c>
@@ -8952,7 +8969,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" t="s">
         <v>265</v>
       </c>
@@ -8977,7 +8994,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" t="s">
         <v>265</v>
       </c>
@@ -9002,7 +9019,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" t="s">
         <v>265</v>
       </c>
@@ -9027,7 +9044,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" t="s">
         <v>265</v>
       </c>
@@ -9052,7 +9069,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" t="s">
         <v>265</v>
       </c>
@@ -9071,7 +9088,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" t="s">
         <v>265</v>
       </c>
@@ -9090,7 +9107,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C53">
         <f>Sheet1!C55</f>
         <v>0</v>
@@ -9106,7 +9123,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" t="s">
         <v>480</v>
       </c>
@@ -9125,7 +9142,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" t="s">
         <v>265</v>
       </c>
@@ -9153,7 +9170,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" t="s">
         <v>265</v>
       </c>
@@ -9181,7 +9198,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" t="s">
         <v>265</v>
       </c>
@@ -9206,7 +9223,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" t="s">
         <v>265</v>
       </c>
@@ -9231,7 +9248,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" t="s">
         <v>265</v>
       </c>
@@ -9256,7 +9273,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" t="s">
         <v>265</v>
       </c>
@@ -9281,7 +9298,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" t="s">
         <v>265</v>
       </c>
@@ -9306,7 +9323,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" t="s">
         <v>265</v>
       </c>
@@ -9331,7 +9348,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" t="s">
         <v>265</v>
       </c>
@@ -9356,7 +9373,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" t="s">
         <v>265</v>
       </c>
@@ -9381,7 +9398,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" t="s">
         <v>265</v>
       </c>
@@ -9406,7 +9423,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" t="s">
         <v>265</v>
       </c>
@@ -9431,7 +9448,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" t="s">
         <v>265</v>
       </c>
@@ -9456,7 +9473,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" t="s">
         <v>265</v>
       </c>
@@ -9481,7 +9498,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" t="s">
         <v>265</v>
       </c>
@@ -9506,7 +9523,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" t="s">
         <v>265</v>
       </c>
@@ -9531,7 +9548,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" t="s">
         <v>265</v>
       </c>
@@ -9556,7 +9573,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" t="s">
         <v>265</v>
       </c>
@@ -9581,7 +9598,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" t="s">
         <v>265</v>
       </c>
@@ -9606,7 +9623,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" t="s">
         <v>265</v>
       </c>
@@ -9631,7 +9648,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" t="s">
         <v>265</v>
       </c>
@@ -9656,7 +9673,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" t="s">
         <v>265</v>
       </c>
@@ -9681,7 +9698,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C77">
         <f>Sheet1!C79</f>
         <v>0</v>
@@ -9697,7 +9714,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" t="s">
         <v>480</v>
       </c>
@@ -9716,7 +9733,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" t="s">
         <v>265</v>
       </c>
@@ -9744,7 +9761,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" t="s">
         <v>265</v>
       </c>
@@ -9775,7 +9792,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" t="s">
         <v>265</v>
       </c>
@@ -9803,7 +9820,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" t="s">
         <v>265</v>
       </c>
@@ -9828,7 +9845,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" t="s">
         <v>265</v>
       </c>
@@ -9853,7 +9870,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" t="s">
         <v>265</v>
       </c>
@@ -9878,7 +9895,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" t="s">
         <v>265</v>
       </c>
@@ -9906,7 +9923,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" t="s">
         <v>265</v>
       </c>
@@ -9931,7 +9948,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" t="s">
         <v>265</v>
       </c>
@@ -9956,7 +9973,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" t="s">
         <v>265</v>
       </c>
@@ -9981,7 +9998,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" t="s">
         <v>265</v>
       </c>
@@ -10006,7 +10023,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" t="s">
         <v>265</v>
       </c>
@@ -10031,7 +10048,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" t="s">
         <v>265</v>
       </c>
@@ -10056,7 +10073,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" t="s">
         <v>265</v>
       </c>
@@ -10081,7 +10098,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" t="s">
         <v>265</v>
       </c>
@@ -10106,7 +10123,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" t="s">
         <v>265</v>
       </c>
@@ -10131,7 +10148,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" t="s">
         <v>265</v>
       </c>
@@ -10156,7 +10173,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" t="s">
         <v>265</v>
       </c>
@@ -10181,7 +10198,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" t="s">
         <v>265</v>
       </c>
@@ -10206,7 +10223,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" t="s">
         <v>265</v>
       </c>
@@ -10231,7 +10248,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" t="s">
         <v>265</v>
       </c>
@@ -10256,7 +10273,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" t="s">
         <v>265</v>
       </c>
@@ -10281,7 +10298,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C101" t="str">
         <f>Sheet1!C103</f>
         <v xml:space="preserve"> </v>
@@ -10297,7 +10314,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" t="s">
         <v>480</v>
       </c>
@@ -10316,7 +10333,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" t="s">
         <v>265</v>
       </c>
@@ -10341,7 +10358,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" t="s">
         <v>265</v>
       </c>
@@ -10366,7 +10383,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" t="s">
         <v>265</v>
       </c>
@@ -10391,7 +10408,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" t="s">
         <v>265</v>
       </c>
@@ -10416,7 +10433,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" t="s">
         <v>265</v>
       </c>
@@ -10441,7 +10458,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" t="s">
         <v>265</v>
       </c>
@@ -10466,7 +10483,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" t="s">
         <v>265</v>
       </c>
@@ -10491,7 +10508,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" t="s">
         <v>265</v>
       </c>
@@ -10516,7 +10533,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" t="s">
         <v>265</v>
       </c>
@@ -10541,7 +10558,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" t="s">
         <v>265</v>
       </c>
@@ -10566,7 +10583,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" t="s">
         <v>265</v>
       </c>
@@ -10591,7 +10608,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" t="s">
         <v>265</v>
       </c>
@@ -10616,7 +10633,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" t="s">
         <v>265</v>
       </c>
@@ -10641,7 +10658,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" t="s">
         <v>265</v>
       </c>
@@ -10666,7 +10683,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" t="s">
         <v>265</v>
       </c>
@@ -10691,7 +10708,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" t="s">
         <v>265</v>
       </c>
@@ -10716,7 +10733,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="s">
         <v>265</v>
       </c>
@@ -10741,7 +10758,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" t="s">
         <v>265</v>
       </c>
@@ -10766,7 +10783,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" t="s">
         <v>265</v>
       </c>
@@ -10791,7 +10808,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" t="s">
         <v>265</v>
       </c>
@@ -10816,7 +10833,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" t="s">
         <v>265</v>
       </c>
@@ -10841,7 +10858,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" t="s">
         <v>265</v>
       </c>
@@ -10866,7 +10883,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" t="s">
         <v>265</v>
       </c>
@@ -10891,7 +10908,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" t="s">
         <v>265</v>
       </c>
@@ -10916,7 +10933,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C127">
         <f>Sheet1!C129</f>
         <v>0</v>
@@ -10932,7 +10949,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" t="s">
         <v>480</v>
       </c>
@@ -10951,7 +10968,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" t="s">
         <v>265</v>
       </c>
@@ -10970,7 +10987,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" t="s">
         <v>265</v>
       </c>
@@ -10989,7 +11006,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" t="s">
         <v>265</v>
       </c>
@@ -11008,7 +11025,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" t="s">
         <v>265</v>
       </c>
@@ -11027,7 +11044,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" t="s">
         <v>265</v>
       </c>
@@ -11046,7 +11063,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" t="s">
         <v>265</v>
       </c>
@@ -11065,7 +11082,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" t="s">
         <v>265</v>
       </c>
@@ -11084,7 +11101,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" t="s">
         <v>265</v>
       </c>
@@ -11103,7 +11120,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" t="s">
         <v>265</v>
       </c>
